--- a/stage2_excels/PD/PD_color_space.xlsx
+++ b/stage2_excels/PD/PD_color_space.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="PD" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T27"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,1668 +538,1476 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>20231211-DAY0-PD69- (15)</t>
+          <t>D1-pd1+</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>85.12696538670565</v>
+        <v>561.4585578590224</v>
       </c>
       <c r="C2" t="n">
-        <v>14.75050423075936</v>
+        <v>111.7260831951554</v>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="E2" t="n">
-        <v>42.86308057356592</v>
+        <v>1509.803752656621</v>
       </c>
       <c r="F2" t="n">
-        <v>6.546990191955837</v>
+        <v>38.85619323424029</v>
       </c>
       <c r="G2" t="n">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="H2" t="n">
-        <v>17</v>
+        <v>139</v>
       </c>
       <c r="I2" t="n">
-        <v>186.4178931341985</v>
+        <v>155.1222369560608</v>
       </c>
       <c r="J2" t="n">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="K2" t="n">
-        <v>1357.065495970833</v>
+        <v>724.378404900042</v>
       </c>
       <c r="L2" t="n">
-        <v>36.83836988753484</v>
+        <v>26.91427882927652</v>
       </c>
       <c r="M2" t="n">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="N2" t="n">
-        <v>213</v>
+        <v>173</v>
       </c>
       <c r="O2" t="n">
-        <v>115.0346296940424</v>
+        <v>203.3497703415608</v>
       </c>
       <c r="P2" t="n">
-        <v>116</v>
+        <v>204</v>
       </c>
       <c r="Q2" t="n">
-        <v>2043.825685776123</v>
+        <v>334.793608233276</v>
       </c>
       <c r="R2" t="n">
-        <v>45.2086903789097</v>
+        <v>18.29736615563224</v>
       </c>
       <c r="S2" t="n">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="T2" t="n">
-        <v>150</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>20231211-DAY0-PD69- (2)</t>
+          <t>D1-pd14</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>40.62352654560447</v>
+        <v>1059.4493952954</v>
       </c>
       <c r="C3" t="n">
-        <v>15.47645386616195</v>
+        <v>80.98771099038377</v>
       </c>
       <c r="D3" t="n">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="E3" t="n">
-        <v>33.48094305382639</v>
+        <v>2243.379450580042</v>
       </c>
       <c r="F3" t="n">
-        <v>5.786271947793881</v>
+        <v>47.36432677216094</v>
       </c>
       <c r="G3" t="n">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="H3" t="n">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="I3" t="n">
-        <v>151.0356482615765</v>
+        <v>133.3887630862756</v>
       </c>
       <c r="J3" t="n">
+        <v>131</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1245.636414707977</v>
+      </c>
+      <c r="L3" t="n">
+        <v>35.29357469438279</v>
+      </c>
+      <c r="M3" t="n">
+        <v>113</v>
+      </c>
+      <c r="N3" t="n">
         <v>156</v>
       </c>
-      <c r="K3" t="n">
-        <v>2308.975769241241</v>
-      </c>
-      <c r="L3" t="n">
-        <v>48.05180297596794</v>
-      </c>
-      <c r="M3" t="n">
-        <v>108</v>
-      </c>
-      <c r="N3" t="n">
-        <v>193</v>
-      </c>
       <c r="O3" t="n">
-        <v>140.0082760071449</v>
+        <v>189.6976440562808</v>
       </c>
       <c r="P3" t="n">
-        <v>148</v>
+        <v>191</v>
       </c>
       <c r="Q3" t="n">
-        <v>1672.249014411708</v>
+        <v>515.1887514841499</v>
       </c>
       <c r="R3" t="n">
-        <v>40.893141410409</v>
+        <v>22.69776974691896</v>
       </c>
       <c r="S3" t="n">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="T3" t="n">
-        <v>175</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20231217-PD2-14 (1)</t>
+          <t>D1-pd17</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>106.4420831693559</v>
+        <v>592.2739840819562</v>
       </c>
       <c r="C4" t="n">
-        <v>19.75013736595284</v>
+        <v>81.72321014061646</v>
       </c>
       <c r="D4" t="n">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="E4" t="n">
-        <v>27.84811538769831</v>
+        <v>2201.42579975927</v>
       </c>
       <c r="F4" t="n">
-        <v>5.277131359716026</v>
+        <v>46.91935421293936</v>
       </c>
       <c r="G4" t="n">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="H4" t="n">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="I4" t="n">
-        <v>107.510547805014</v>
+        <v>131.3075482108676</v>
       </c>
       <c r="J4" t="n">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="K4" t="n">
-        <v>1216.004992434637</v>
+        <v>1115.51003389459</v>
       </c>
       <c r="L4" t="n">
-        <v>34.87126313219292</v>
+        <v>33.39925199603414</v>
       </c>
       <c r="M4" t="n">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="N4" t="n">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="O4" t="n">
-        <v>138.737644757191</v>
+        <v>188.0995509619084</v>
       </c>
       <c r="P4" t="n">
-        <v>144</v>
+        <v>190</v>
       </c>
       <c r="Q4" t="n">
-        <v>716.7776468203563</v>
+        <v>524.0887281933004</v>
       </c>
       <c r="R4" t="n">
-        <v>26.77270339021363</v>
+        <v>22.89298425704479</v>
       </c>
       <c r="S4" t="n">
-        <v>120</v>
+        <v>174</v>
       </c>
       <c r="T4" t="n">
-        <v>159</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20231018-DAY0-PD2 (4)</t>
+          <t>D1-pd2</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>173.5227600682146</v>
+        <v>513.7161210268152</v>
       </c>
       <c r="C5" t="n">
-        <v>19.75270597784011</v>
+        <v>84.20345092780659</v>
       </c>
       <c r="D5" t="n">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="E5" t="n">
-        <v>127.5485556617183</v>
+        <v>2183.187989905299</v>
       </c>
       <c r="F5" t="n">
-        <v>11.2937396668118</v>
+        <v>46.72459726851906</v>
       </c>
       <c r="G5" t="n">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="H5" t="n">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="I5" t="n">
-        <v>111.831670144757</v>
+        <v>127.546969006739</v>
       </c>
       <c r="J5" t="n">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="K5" t="n">
-        <v>1891.63062321658</v>
+        <v>1170.551026762435</v>
       </c>
       <c r="L5" t="n">
-        <v>43.49288014395667</v>
+        <v>34.21331651217746</v>
       </c>
       <c r="M5" t="n">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="N5" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O5" t="n">
-        <v>129.9862387718876</v>
+        <v>180.0280756429177</v>
       </c>
       <c r="P5" t="n">
-        <v>137</v>
+        <v>180</v>
       </c>
       <c r="Q5" t="n">
-        <v>1024.990621212672</v>
+        <v>556.2955230277821</v>
       </c>
       <c r="R5" t="n">
-        <v>32.01547471477928</v>
+        <v>23.58591789665567</v>
       </c>
       <c r="S5" t="n">
-        <v>105</v>
+        <v>166</v>
       </c>
       <c r="T5" t="n">
-        <v>157</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20231217-PD66-2 (1)</t>
+          <t>D2-pd15</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>69.49809786173422</v>
+        <v>1029.855859296316</v>
       </c>
       <c r="C6" t="n">
-        <v>14.82602322562765</v>
+        <v>80.19308009145993</v>
       </c>
       <c r="D6" t="n">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="E6" t="n">
-        <v>31.24151003224754</v>
+        <v>2473.438087708425</v>
       </c>
       <c r="F6" t="n">
-        <v>5.589410526365686</v>
+        <v>49.73367156875133</v>
       </c>
       <c r="G6" t="n">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="H6" t="n">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="I6" t="n">
-        <v>197.8171363753835</v>
+        <v>130.8489788402697</v>
       </c>
       <c r="J6" t="n">
-        <v>203</v>
+        <v>133</v>
       </c>
       <c r="K6" t="n">
-        <v>924.7136199663896</v>
+        <v>1381.870398851062</v>
       </c>
       <c r="L6" t="n">
-        <v>30.40910422827989</v>
+        <v>37.17351743985309</v>
       </c>
       <c r="M6" t="n">
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="N6" t="n">
-        <v>218</v>
+        <v>157</v>
       </c>
       <c r="O6" t="n">
-        <v>93.23548896477486</v>
+        <v>188.5273416085833</v>
       </c>
       <c r="P6" t="n">
-        <v>89</v>
+        <v>192</v>
       </c>
       <c r="Q6" t="n">
-        <v>1233.993724019911</v>
+        <v>667.7477135532073</v>
       </c>
       <c r="R6" t="n">
-        <v>35.12824681107656</v>
+        <v>25.84081487788664</v>
       </c>
       <c r="S6" t="n">
-        <v>63</v>
+        <v>174</v>
       </c>
       <c r="T6" t="n">
-        <v>122</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20231217-PD2-5 (1)</t>
+          <t>D2-pd16</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>225.7547647158037</v>
+        <v>802.4733800326603</v>
       </c>
       <c r="C7" t="n">
-        <v>21.77680274831788</v>
+        <v>77.84892021948463</v>
       </c>
       <c r="D7" t="n">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="E7" t="n">
-        <v>22.77235890778665</v>
+        <v>2352.658198581963</v>
       </c>
       <c r="F7" t="n">
-        <v>4.772039281877994</v>
+        <v>48.50420805025027</v>
       </c>
       <c r="G7" t="n">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="H7" t="n">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="I7" t="n">
-        <v>101.9584054649013</v>
+        <v>126.5076351142312</v>
       </c>
       <c r="J7" t="n">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="K7" t="n">
-        <v>1053.662412624321</v>
+        <v>1303.323269487993</v>
       </c>
       <c r="L7" t="n">
-        <v>32.46016655262756</v>
+        <v>36.10156879538606</v>
       </c>
       <c r="M7" t="n">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="N7" t="n">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="O7" t="n">
-        <v>129.1222768438966</v>
+        <v>186.1368468660879</v>
       </c>
       <c r="P7" t="n">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="Q7" t="n">
-        <v>1092.28223344795</v>
+        <v>671.2393228617469</v>
       </c>
       <c r="R7" t="n">
-        <v>33.0496933941595</v>
+        <v>25.90828676045074</v>
       </c>
       <c r="S7" t="n">
-        <v>103</v>
+        <v>171</v>
       </c>
       <c r="T7" t="n">
-        <v>153</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20231211-DAY0-PD42- (14)</t>
+          <t>D2-pd22</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>45.32673675530818</v>
+        <v>915.9922242616184</v>
       </c>
       <c r="C8" t="n">
-        <v>13.18497828579079</v>
+        <v>86.57200940389367</v>
       </c>
       <c r="D8" t="n">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="E8" t="n">
-        <v>365.0592938741551</v>
+        <v>2499.824975721905</v>
       </c>
       <c r="F8" t="n">
-        <v>19.10652490313597</v>
+        <v>49.99824972658448</v>
       </c>
       <c r="G8" t="n">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="H8" t="n">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="I8" t="n">
-        <v>167.9148361768288</v>
+        <v>137.0070157204105</v>
       </c>
       <c r="J8" t="n">
+        <v>138</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1395.404358836515</v>
+      </c>
+      <c r="L8" t="n">
+        <v>37.355111548977</v>
+      </c>
+      <c r="M8" t="n">
+        <v>113</v>
+      </c>
+      <c r="N8" t="n">
+        <v>165</v>
+      </c>
+      <c r="O8" t="n">
+        <v>193.7556005098076</v>
+      </c>
+      <c r="P8" t="n">
+        <v>197</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>698.4438382030005</v>
+      </c>
+      <c r="R8" t="n">
+        <v>26.42808805424638</v>
+      </c>
+      <c r="S8" t="n">
         <v>177</v>
       </c>
-      <c r="K8" t="n">
-        <v>1841.438720156199</v>
-      </c>
-      <c r="L8" t="n">
-        <v>42.91198807042386</v>
-      </c>
-      <c r="M8" t="n">
-        <v>144</v>
-      </c>
-      <c r="N8" t="n">
-        <v>198</v>
-      </c>
-      <c r="O8" t="n">
-        <v>84.2886615840045</v>
-      </c>
-      <c r="P8" t="n">
-        <v>82</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1037.121065314667</v>
-      </c>
-      <c r="R8" t="n">
-        <v>32.20436407250836</v>
-      </c>
-      <c r="S8" t="n">
-        <v>62</v>
-      </c>
       <c r="T8" t="n">
-        <v>105</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20231211-DAY0-PD42- (18)</t>
+          <t>D2-pd28</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>47.16830644103371</v>
+        <v>674.0398130548284</v>
       </c>
       <c r="C9" t="n">
-        <v>17.38338857012313</v>
+        <v>72.36759676620223</v>
       </c>
       <c r="D9" t="n">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="E9" t="n">
-        <v>1013.583118855006</v>
+        <v>2076.084223441033</v>
       </c>
       <c r="F9" t="n">
-        <v>31.83682017499559</v>
+        <v>45.56406723988798</v>
       </c>
       <c r="G9" t="n">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="H9" t="n">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="I9" t="n">
-        <v>139.341101209043</v>
+        <v>125.4991379465168</v>
       </c>
       <c r="J9" t="n">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="K9" t="n">
-        <v>2566.90678680564</v>
+        <v>1375.332187675415</v>
       </c>
       <c r="L9" t="n">
-        <v>50.66465026826535</v>
+        <v>37.08547138267781</v>
       </c>
       <c r="M9" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c r="O9" t="n">
-        <v>70.16717548395914</v>
+        <v>183.2544332499731</v>
       </c>
       <c r="P9" t="n">
-        <v>70</v>
+        <v>185</v>
       </c>
       <c r="Q9" t="n">
-        <v>930.9628221311139</v>
+        <v>801.0564122980018</v>
       </c>
       <c r="R9" t="n">
-        <v>30.51168337098289</v>
+        <v>28.30293999389466</v>
       </c>
       <c r="S9" t="n">
-        <v>43</v>
+        <v>164</v>
       </c>
       <c r="T9" t="n">
-        <v>92</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20231211-DAY0-PD69- (4)</t>
+          <t>D3-pd18</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.83210584509285</v>
+        <v>999.4678930196799</v>
       </c>
       <c r="C10" t="n">
-        <v>12.08491927421434</v>
+        <v>47.4936391800145</v>
       </c>
       <c r="D10" t="n">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="E10" t="n">
-        <v>128.9153856036428</v>
+        <v>2122.85770224092</v>
       </c>
       <c r="F10" t="n">
-        <v>11.35409113948108</v>
+        <v>46.07447994542012</v>
       </c>
       <c r="G10" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H10" t="n">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="I10" t="n">
-        <v>178.7252864606533</v>
+        <v>103.0200067846989</v>
       </c>
       <c r="J10" t="n">
-        <v>188</v>
+        <v>99</v>
       </c>
       <c r="K10" t="n">
-        <v>1467.34926332064</v>
+        <v>1390.350990591838</v>
       </c>
       <c r="L10" t="n">
-        <v>38.30599513549596</v>
+        <v>37.28741061795306</v>
       </c>
       <c r="M10" t="n">
-        <v>161</v>
+        <v>78</v>
       </c>
       <c r="N10" t="n">
-        <v>206</v>
+        <v>122</v>
       </c>
       <c r="O10" t="n">
-        <v>82.47686687446793</v>
+        <v>167.428659905707</v>
       </c>
       <c r="P10" t="n">
-        <v>84</v>
+        <v>165</v>
       </c>
       <c r="Q10" t="n">
-        <v>937.7911206359805</v>
+        <v>757.9178990978529</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62337539586354</v>
+        <v>27.53030873597049</v>
       </c>
       <c r="S10" t="n">
-        <v>58</v>
+        <v>149</v>
       </c>
       <c r="T10" t="n">
-        <v>106</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20231110-pd66-day0 (1)</t>
+          <t>D3-pd4</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>56.49092033507618</v>
+        <v>693.0557317035549</v>
       </c>
       <c r="C11" t="n">
-        <v>14.46333286118602</v>
+        <v>41.86865143999407</v>
       </c>
       <c r="D11" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="E11" t="n">
-        <v>305.0780704769546</v>
+        <v>1310.759409656917</v>
       </c>
       <c r="F11" t="n">
-        <v>17.46648420481221</v>
+        <v>36.20441146679389</v>
       </c>
       <c r="G11" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H11" t="n">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="I11" t="n">
-        <v>166.2811735256954</v>
+        <v>82.78394019000798</v>
       </c>
       <c r="J11" t="n">
-        <v>179</v>
+        <v>81</v>
       </c>
       <c r="K11" t="n">
-        <v>2349.66921136309</v>
+        <v>1176.051190907913</v>
       </c>
       <c r="L11" t="n">
-        <v>48.47338662981049</v>
+        <v>34.29360276943665</v>
       </c>
       <c r="M11" t="n">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="N11" t="n">
-        <v>200</v>
+        <v>104</v>
       </c>
       <c r="O11" t="n">
-        <v>86.76803967075503</v>
+        <v>135.7842768741108</v>
       </c>
       <c r="P11" t="n">
-        <v>89</v>
+        <v>137</v>
       </c>
       <c r="Q11" t="n">
-        <v>979.2789651085334</v>
+        <v>799.70883922792</v>
       </c>
       <c r="R11" t="n">
-        <v>31.29343325856933</v>
+        <v>28.27912373514993</v>
       </c>
       <c r="S11" t="n">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="T11" t="n">
-        <v>107</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20231018-DAY0-PD2 (2)</t>
+          <t>D3-pd9</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>183.7661962856768</v>
+        <v>810.9580567025619</v>
       </c>
       <c r="C12" t="n">
-        <v>15.44308878701345</v>
+        <v>49.06564938673797</v>
       </c>
       <c r="D12" t="n">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="E12" t="n">
-        <v>39.93343913280842</v>
+        <v>1290.309323296965</v>
       </c>
       <c r="F12" t="n">
-        <v>6.319291030867975</v>
+        <v>35.9208758704039</v>
       </c>
       <c r="G12" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H12" t="n">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="I12" t="n">
-        <v>170.6754898842066</v>
+        <v>84.47871231069797</v>
       </c>
       <c r="J12" t="n">
-        <v>179</v>
+        <v>82</v>
       </c>
       <c r="K12" t="n">
-        <v>1459.043456545132</v>
+        <v>1105.15259184368</v>
       </c>
       <c r="L12" t="n">
-        <v>38.1974273550606</v>
+        <v>33.24383539611036</v>
       </c>
       <c r="M12" t="n">
-        <v>155</v>
+        <v>61</v>
       </c>
       <c r="N12" t="n">
-        <v>196</v>
+        <v>104</v>
       </c>
       <c r="O12" t="n">
-        <v>112.8981047013506</v>
+        <v>134.5325897507938</v>
       </c>
       <c r="P12" t="n">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="Q12" t="n">
-        <v>881.2469427999713</v>
+        <v>849.5702157893804</v>
       </c>
       <c r="R12" t="n">
-        <v>29.68580372501259</v>
+        <v>29.14738780387327</v>
       </c>
       <c r="S12" t="n">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="T12" t="n">
-        <v>133</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20231217-PD66-3 (1)</t>
+          <t>D4-pd19</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.28303442589157</v>
+        <v>1683.290893147313</v>
       </c>
       <c r="C13" t="n">
-        <v>14.68580996368792</v>
+        <v>32.08879649374435</v>
       </c>
       <c r="D13" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E13" t="n">
-        <v>5.126917141598693</v>
+        <v>1588.107883708008</v>
       </c>
       <c r="F13" t="n">
-        <v>2.264269670688254</v>
+        <v>39.85107129937673</v>
       </c>
       <c r="G13" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H13" t="n">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I13" t="n">
-        <v>202.2229314079199</v>
+        <v>70.67236659811408</v>
       </c>
       <c r="J13" t="n">
-        <v>207</v>
+        <v>67</v>
       </c>
       <c r="K13" t="n">
-        <v>637.526101217848</v>
+        <v>1466.460099150913</v>
       </c>
       <c r="L13" t="n">
-        <v>25.24927922174905</v>
+        <v>38.29438730611724</v>
       </c>
       <c r="M13" t="n">
-        <v>192</v>
+        <v>42</v>
       </c>
       <c r="N13" t="n">
-        <v>218</v>
+        <v>92</v>
       </c>
       <c r="O13" t="n">
-        <v>108.3593243847185</v>
+        <v>133.6520956885988</v>
       </c>
       <c r="P13" t="n">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="Q13" t="n">
-        <v>733.347008287707</v>
+        <v>1343.060775000495</v>
       </c>
       <c r="R13" t="n">
-        <v>27.08038050485456</v>
+        <v>36.64779358979876</v>
       </c>
       <c r="S13" t="n">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="T13" t="n">
-        <v>130</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20231018-DAY0-PD2 (1)</t>
+          <t>D4-pd24</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>101.4088191750529</v>
+        <v>479.646353514618</v>
       </c>
       <c r="C14" t="n">
-        <v>17.95587775383328</v>
+        <v>28.34211522182941</v>
       </c>
       <c r="D14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>79.81197703636523</v>
+        <v>1597.822094754039</v>
       </c>
       <c r="F14" t="n">
-        <v>8.933754923679361</v>
+        <v>39.97276691391327</v>
       </c>
       <c r="G14" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H14" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="I14" t="n">
-        <v>107.4913148582059</v>
+        <v>61.30416363414542</v>
       </c>
       <c r="J14" t="n">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="K14" t="n">
-        <v>1416.977965890411</v>
+        <v>1284.141661033194</v>
       </c>
       <c r="L14" t="n">
-        <v>37.64276777669797</v>
+        <v>35.83492236678062</v>
       </c>
       <c r="M14" t="n">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="N14" t="n">
+        <v>75</v>
+      </c>
+      <c r="O14" t="n">
+        <v>114.9962250191271</v>
+      </c>
+      <c r="P14" t="n">
+        <v>112</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1011.575489570742</v>
+      </c>
+      <c r="R14" t="n">
+        <v>31.80527455581451</v>
+      </c>
+      <c r="S14" t="n">
+        <v>93</v>
+      </c>
+      <c r="T14" t="n">
         <v>130</v>
-      </c>
-      <c r="O14" t="n">
-        <v>133.8146588715859</v>
-      </c>
-      <c r="P14" t="n">
-        <v>135</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>851.4723077239819</v>
-      </c>
-      <c r="R14" t="n">
-        <v>29.17999841884817</v>
-      </c>
-      <c r="S14" t="n">
-        <v>111</v>
-      </c>
-      <c r="T14" t="n">
-        <v>159</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20231211-DAY0-PD42- (16)</t>
+          <t>D4-pd26</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>63.16695714098311</v>
+        <v>710.0512972098762</v>
       </c>
       <c r="C15" t="n">
-        <v>13.05142195193971</v>
+        <v>21.31065244129963</v>
       </c>
       <c r="D15" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E15" t="n">
-        <v>41.89955915384537</v>
+        <v>1045.591432981361</v>
       </c>
       <c r="F15" t="n">
-        <v>6.472986880401146</v>
+        <v>32.33560627205497</v>
       </c>
       <c r="G15" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H15" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I15" t="n">
-        <v>188.1995249349471</v>
+        <v>56.42808697159978</v>
       </c>
       <c r="J15" t="n">
-        <v>198</v>
+        <v>49</v>
       </c>
       <c r="K15" t="n">
-        <v>1293.196736387744</v>
+        <v>903.8885280783047</v>
       </c>
       <c r="L15" t="n">
-        <v>35.96104470656746</v>
+        <v>30.06473894911288</v>
       </c>
       <c r="M15" t="n">
-        <v>177</v>
+        <v>40</v>
       </c>
       <c r="N15" t="n">
-        <v>212</v>
+        <v>66</v>
       </c>
       <c r="O15" t="n">
-        <v>112.0396445554154</v>
+        <v>110.9147243235875</v>
       </c>
       <c r="P15" t="n">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="Q15" t="n">
-        <v>1030.630129238305</v>
+        <v>816.3648855364653</v>
       </c>
       <c r="R15" t="n">
-        <v>32.10342862122837</v>
+        <v>28.57209977471843</v>
       </c>
       <c r="S15" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="T15" t="n">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20231110-pd67-day0 (20)</t>
+          <t>D4-pd6</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>22.08099548359289</v>
+        <v>527.8747235876633</v>
       </c>
       <c r="C16" t="n">
-        <v>13.29504223108112</v>
+        <v>32.61940887919294</v>
       </c>
       <c r="D16" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E16" t="n">
-        <v>350.8877884599055</v>
+        <v>1664.705717995985</v>
       </c>
       <c r="F16" t="n">
-        <v>18.73199905135342</v>
+        <v>40.80080535964927</v>
       </c>
       <c r="G16" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H16" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="I16" t="n">
-        <v>164.2712736510697</v>
+        <v>71.22790982274317</v>
       </c>
       <c r="J16" t="n">
-        <v>175</v>
+        <v>66</v>
       </c>
       <c r="K16" t="n">
-        <v>2059.292723263952</v>
+        <v>1206.20216346679</v>
       </c>
       <c r="L16" t="n">
-        <v>45.37943061855174</v>
+        <v>34.73042129699538</v>
       </c>
       <c r="M16" t="n">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="N16" t="n">
-        <v>196</v>
+        <v>83</v>
       </c>
       <c r="O16" t="n">
-        <v>89.73032529212469</v>
+        <v>127.146574939551</v>
       </c>
       <c r="P16" t="n">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="Q16" t="n">
-        <v>967.3828508729131</v>
+        <v>789.352291050569</v>
       </c>
       <c r="R16" t="n">
-        <v>31.10277882879459</v>
+        <v>28.09541405729001</v>
       </c>
       <c r="S16" t="n">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="T16" t="n">
-        <v>112</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20231211-DAY0-PD69- (6)</t>
+          <t>D5-pd3+</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>47.67811697681827</v>
+        <v>866.340331914583</v>
       </c>
       <c r="C17" t="n">
-        <v>16.76779025028757</v>
+        <v>30.81722833695576</v>
       </c>
       <c r="D17" t="n">
         <v>17</v>
       </c>
       <c r="E17" t="n">
-        <v>23.80467686306943</v>
+        <v>1970.83316785345</v>
       </c>
       <c r="F17" t="n">
-        <v>4.879003675246559</v>
+        <v>44.39406680912946</v>
       </c>
       <c r="G17" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H17" t="n">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I17" t="n">
-        <v>146.626039280983</v>
+        <v>60.63163949429345</v>
       </c>
       <c r="J17" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="K17" t="n">
-        <v>1308.612096616462</v>
+        <v>1603.128947174781</v>
       </c>
       <c r="L17" t="n">
-        <v>36.17474390533348</v>
+        <v>40.03909273665901</v>
       </c>
       <c r="M17" t="n">
-        <v>121</v>
+        <v>38</v>
       </c>
       <c r="N17" t="n">
-        <v>173</v>
+        <v>71</v>
       </c>
       <c r="O17" t="n">
-        <v>164.5152883947186</v>
+        <v>117.2704345721308</v>
       </c>
       <c r="P17" t="n">
-        <v>169</v>
+        <v>115</v>
       </c>
       <c r="Q17" t="n">
-        <v>716.9386181889287</v>
+        <v>1284.10709434455</v>
       </c>
       <c r="R17" t="n">
-        <v>26.77570948058947</v>
+        <v>35.83444005903469</v>
       </c>
       <c r="S17" t="n">
-        <v>150</v>
+        <v>94</v>
       </c>
       <c r="T17" t="n">
-        <v>186</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20231217-PD66-14 (1)</t>
+          <t>D5-pd4+</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>83.90989674106557</v>
+        <v>1410.398043846502</v>
       </c>
       <c r="C18" t="n">
-        <v>16.73910207650743</v>
+        <v>30.37257311227542</v>
       </c>
       <c r="D18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E18" t="n">
-        <v>6.004714410016474</v>
+        <v>1851.995045061403</v>
       </c>
       <c r="F18" t="n">
-        <v>2.4504518787392</v>
+        <v>43.03481201378023</v>
       </c>
       <c r="G18" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H18" t="n">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I18" t="n">
-        <v>186.3041776601953</v>
+        <v>68.11232895130181</v>
       </c>
       <c r="J18" t="n">
-        <v>190</v>
+        <v>55</v>
       </c>
       <c r="K18" t="n">
-        <v>722.6945466664256</v>
+        <v>1541.399533941037</v>
       </c>
       <c r="L18" t="n">
-        <v>26.88297875359845</v>
+        <v>39.26066140478325</v>
       </c>
       <c r="M18" t="n">
-        <v>174</v>
+        <v>44</v>
       </c>
       <c r="N18" t="n">
-        <v>204</v>
+        <v>80</v>
       </c>
       <c r="O18" t="n">
-        <v>118.3300901660653</v>
+        <v>128.4640617248828</v>
       </c>
       <c r="P18" t="n">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="Q18" t="n">
-        <v>852.6876017899206</v>
+        <v>1173.539452710143</v>
       </c>
       <c r="R18" t="n">
-        <v>29.20081508776631</v>
+        <v>34.25696210568216</v>
       </c>
       <c r="S18" t="n">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="T18" t="n">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20231211-DAY0-PD42- (17)</t>
+          <t>D5-pd5</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>47.60990236314912</v>
+        <v>649.54353528329</v>
       </c>
       <c r="C19" t="n">
-        <v>12.16325368177997</v>
+        <v>28.18052835740582</v>
       </c>
       <c r="D19" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E19" t="n">
-        <v>464.3428106398413</v>
+        <v>1805.548878518769</v>
       </c>
       <c r="F19" t="n">
-        <v>21.54861505154894</v>
+        <v>42.49175071138831</v>
       </c>
       <c r="G19" t="n">
         <v>6</v>
       </c>
       <c r="H19" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I19" t="n">
-        <v>130.5363204978854</v>
+        <v>54.06826797192533</v>
       </c>
       <c r="J19" t="n">
-        <v>134</v>
+        <v>45</v>
       </c>
       <c r="K19" t="n">
-        <v>1498.337058008862</v>
+        <v>1382.356693586214</v>
       </c>
       <c r="L19" t="n">
-        <v>38.70835901984043</v>
+        <v>37.18005774049058</v>
       </c>
       <c r="M19" t="n">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="N19" t="n">
-        <v>161</v>
+        <v>59</v>
       </c>
       <c r="O19" t="n">
-        <v>86.49931667317455</v>
+        <v>102.5159289452933</v>
       </c>
       <c r="P19" t="n">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="Q19" t="n">
-        <v>1328.931055950039</v>
+        <v>1257.50742823618</v>
       </c>
       <c r="R19" t="n">
-        <v>36.45450666172893</v>
+        <v>35.46135119022087</v>
       </c>
       <c r="S19" t="n">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="T19" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20231110-pd67-day0 (2)</t>
+          <t>D5-pd8</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>94.50864863851876</v>
+        <v>1636.115042376</v>
       </c>
       <c r="C20" t="n">
-        <v>16.9386611234982</v>
+        <v>21.00205161808017</v>
       </c>
       <c r="D20" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E20" t="n">
-        <v>221.9047089554737</v>
+        <v>2083.626340248953</v>
       </c>
       <c r="F20" t="n">
-        <v>14.89646632445003</v>
+        <v>45.64675607585881</v>
       </c>
       <c r="G20" t="n">
+        <v>2</v>
+      </c>
+      <c r="H20" t="n">
         <v>13</v>
       </c>
-      <c r="H20" t="n">
-        <v>17</v>
-      </c>
       <c r="I20" t="n">
-        <v>159.1157380634653</v>
+        <v>49.72454499039294</v>
       </c>
       <c r="J20" t="n">
-        <v>170</v>
+        <v>42</v>
       </c>
       <c r="K20" t="n">
-        <v>1773.241246786088</v>
+        <v>1305.667841717672</v>
       </c>
       <c r="L20" t="n">
-        <v>42.10987113238519</v>
+        <v>36.13402609338837</v>
       </c>
       <c r="M20" t="n">
-        <v>141</v>
+        <v>32</v>
       </c>
       <c r="N20" t="n">
-        <v>189</v>
+        <v>53</v>
       </c>
       <c r="O20" t="n">
-        <v>121.9026506838287</v>
+        <v>108.1962089431576</v>
       </c>
       <c r="P20" t="n">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="Q20" t="n">
-        <v>1157.357024825071</v>
+        <v>1128.940828824394</v>
       </c>
       <c r="R20" t="n">
-        <v>34.01995039421825</v>
+        <v>33.59971471343759</v>
       </c>
       <c r="S20" t="n">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="T20" t="n">
-        <v>148</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20231110-pd67-day0 (10)</t>
+          <t>D6-pd10</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>29.52650812391072</v>
+        <v>728.7950125909134</v>
       </c>
       <c r="C21" t="n">
-        <v>14.11741421424292</v>
+        <v>34.92714782753598</v>
       </c>
       <c r="D21" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E21" t="n">
-        <v>132.9572303246141</v>
+        <v>1556.038733691689</v>
       </c>
       <c r="F21" t="n">
-        <v>11.53070814497593</v>
+        <v>39.4466568126082</v>
       </c>
       <c r="G21" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H21" t="n">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="I21" t="n">
-        <v>169.7531062646624</v>
+        <v>51.69279087987199</v>
       </c>
       <c r="J21" t="n">
-        <v>183</v>
+        <v>43</v>
       </c>
       <c r="K21" t="n">
-        <v>2319.063092181912</v>
+        <v>1331.862106501331</v>
       </c>
       <c r="L21" t="n">
-        <v>48.15665158814421</v>
+        <v>36.49468600359963</v>
       </c>
       <c r="M21" t="n">
-        <v>142</v>
+        <v>34</v>
       </c>
       <c r="N21" t="n">
-        <v>207</v>
+        <v>54</v>
       </c>
       <c r="O21" t="n">
-        <v>98.53046147284401</v>
+        <v>87.12809488633063</v>
       </c>
       <c r="P21" t="n">
+        <v>78</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1335.281171124791</v>
+      </c>
+      <c r="R21" t="n">
+        <v>36.54149930045004</v>
+      </c>
+      <c r="S21" t="n">
+        <v>64</v>
+      </c>
+      <c r="T21" t="n">
         <v>102</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1382.868598820532</v>
-      </c>
-      <c r="R21" t="n">
-        <v>37.18694124044799</v>
-      </c>
-      <c r="S21" t="n">
-        <v>66</v>
-      </c>
-      <c r="T21" t="n">
-        <v>130</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20231110-pd66-day0 (8)</t>
+          <t>D6-pd12</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.15576919473023</v>
+        <v>556.4056586825079</v>
       </c>
       <c r="C22" t="n">
-        <v>13.6711027110069</v>
+        <v>32.01547344714639</v>
       </c>
       <c r="D22" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E22" t="n">
-        <v>272.2221099757394</v>
+        <v>1714.126076637105</v>
       </c>
       <c r="F22" t="n">
-        <v>16.49915482610365</v>
+        <v>41.40200570790146</v>
       </c>
       <c r="G22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H22" t="n">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="I22" t="n">
-        <v>193.6681925529062</v>
+        <v>46.3248003715031</v>
       </c>
       <c r="J22" t="n">
-        <v>206</v>
+        <v>37</v>
       </c>
       <c r="K22" t="n">
-        <v>1590.974356214728</v>
+        <v>1514.060835799042</v>
       </c>
       <c r="L22" t="n">
-        <v>39.88701989638644</v>
+        <v>38.91093465594269</v>
       </c>
       <c r="M22" t="n">
-        <v>172</v>
+        <v>24</v>
       </c>
       <c r="N22" t="n">
-        <v>223</v>
+        <v>50</v>
       </c>
       <c r="O22" t="n">
-        <v>77.57369450580723</v>
+        <v>78.78634696510633</v>
       </c>
       <c r="P22" t="n">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="Q22" t="n">
-        <v>696.5124101192232</v>
+        <v>1557.654943847896</v>
       </c>
       <c r="R22" t="n">
-        <v>26.39152155748553</v>
+        <v>39.46713751778682</v>
       </c>
       <c r="S22" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="T22" t="n">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20231217-PD2-11 (1)</t>
+          <t>D6-pd3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>142.0639793107325</v>
+        <v>797.5797701757566</v>
       </c>
       <c r="C23" t="n">
-        <v>19.32530686098676</v>
+        <v>26.45971194044362</v>
       </c>
       <c r="D23" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E23" t="n">
-        <v>26.04231534265868</v>
+        <v>1889.511238856451</v>
       </c>
       <c r="F23" t="n">
-        <v>5.103167187410057</v>
+        <v>43.46850858790133</v>
       </c>
       <c r="G23" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H23" t="n">
+        <v>23</v>
+      </c>
+      <c r="I23" t="n">
+        <v>40.99544117721757</v>
+      </c>
+      <c r="J23" t="n">
+        <v>28</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1761.974879024623</v>
+      </c>
+      <c r="L23" t="n">
+        <v>41.97588449365449</v>
+      </c>
+      <c r="M23" t="n">
         <v>20</v>
       </c>
-      <c r="I23" t="n">
-        <v>117.2660991828466</v>
-      </c>
-      <c r="J23" t="n">
-        <v>122</v>
-      </c>
-      <c r="K23" t="n">
-        <v>1168.011968476008</v>
-      </c>
-      <c r="L23" t="n">
-        <v>34.17619008134183</v>
-      </c>
-      <c r="M23" t="n">
-        <v>96</v>
-      </c>
       <c r="N23" t="n">
-        <v>141</v>
+        <v>43</v>
       </c>
       <c r="O23" t="n">
-        <v>125.348026482071</v>
+        <v>74.10303018045576</v>
       </c>
       <c r="P23" t="n">
-        <v>127</v>
+        <v>65</v>
       </c>
       <c r="Q23" t="n">
-        <v>1399.651521062896</v>
+        <v>1791.813798136349</v>
       </c>
       <c r="R23" t="n">
-        <v>37.41191683224606</v>
+        <v>42.32982161710996</v>
       </c>
       <c r="S23" t="n">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="T23" t="n">
-        <v>155</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>20231018-DAY0-PD2 (6)</t>
+          <t>D6-pd7</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>119.1159086224021</v>
+        <v>707.1820731363805</v>
       </c>
       <c r="C24" t="n">
-        <v>15.82745795827228</v>
+        <v>28.58226852069338</v>
       </c>
       <c r="D24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E24" t="n">
-        <v>79.58498619158476</v>
+        <v>1863.441739195431</v>
       </c>
       <c r="F24" t="n">
-        <v>8.921041766048669</v>
+        <v>43.16760057259878</v>
       </c>
       <c r="G24" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H24" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I24" t="n">
-        <v>162.5511806832203</v>
+        <v>43.42320343949081</v>
       </c>
       <c r="J24" t="n">
-        <v>170</v>
+        <v>30</v>
       </c>
       <c r="K24" t="n">
-        <v>1825.088456133963</v>
+        <v>1663.761877460397</v>
       </c>
       <c r="L24" t="n">
-        <v>42.72105401478249</v>
+        <v>40.78923727480568</v>
       </c>
       <c r="M24" t="n">
-        <v>143</v>
+        <v>23</v>
       </c>
       <c r="N24" t="n">
-        <v>193</v>
+        <v>43</v>
       </c>
       <c r="O24" t="n">
-        <v>117.9604955457271</v>
+        <v>74.94419005149319</v>
       </c>
       <c r="P24" t="n">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="Q24" t="n">
-        <v>874.5496188553236</v>
+        <v>1637.125276073253</v>
       </c>
       <c r="R24" t="n">
-        <v>29.57278510481087</v>
+        <v>40.46140477137754</v>
       </c>
       <c r="S24" t="n">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="T24" t="n">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>20231110-pd67-day0 (8)</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>86.68480725623583</v>
-      </c>
-      <c r="C25" t="n">
-        <v>15.58291597857961</v>
-      </c>
-      <c r="D25" t="n">
-        <v>15</v>
-      </c>
-      <c r="E25" t="n">
-        <v>56.36916534990615</v>
-      </c>
-      <c r="F25" t="n">
-        <v>7.507940153591139</v>
-      </c>
-      <c r="G25" t="n">
-        <v>14</v>
-      </c>
-      <c r="H25" t="n">
-        <v>17</v>
-      </c>
-      <c r="I25" t="n">
-        <v>178.7716869536148</v>
-      </c>
-      <c r="J25" t="n">
-        <v>188</v>
-      </c>
-      <c r="K25" t="n">
-        <v>1437.881613095707</v>
-      </c>
-      <c r="L25" t="n">
-        <v>37.91940945077741</v>
-      </c>
-      <c r="M25" t="n">
-        <v>164</v>
-      </c>
-      <c r="N25" t="n">
-        <v>204</v>
-      </c>
-      <c r="O25" t="n">
-        <v>109.4408780029696</v>
-      </c>
-      <c r="P25" t="n">
-        <v>112</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>721.7161330993995</v>
-      </c>
-      <c r="R25" t="n">
-        <v>26.86477494972551</v>
-      </c>
-      <c r="S25" t="n">
-        <v>91</v>
-      </c>
-      <c r="T25" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>20231217-SP2-10 (1)</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>174.1245478907817</v>
-      </c>
-      <c r="C26" t="n">
-        <v>19.49950721230606</v>
-      </c>
-      <c r="D26" t="n">
-        <v>20</v>
-      </c>
-      <c r="E26" t="n">
-        <v>4.462042590853503</v>
-      </c>
-      <c r="F26" t="n">
-        <v>2.112354750238109</v>
-      </c>
-      <c r="G26" t="n">
-        <v>18</v>
-      </c>
-      <c r="H26" t="n">
-        <v>21</v>
-      </c>
-      <c r="I26" t="n">
-        <v>133.6379757742565</v>
-      </c>
-      <c r="J26" t="n">
-        <v>133</v>
-      </c>
-      <c r="K26" t="n">
-        <v>1082.520339869255</v>
-      </c>
-      <c r="L26" t="n">
-        <v>32.90167685497587</v>
-      </c>
-      <c r="M26" t="n">
-        <v>106</v>
-      </c>
-      <c r="N26" t="n">
-        <v>161</v>
-      </c>
-      <c r="O26" t="n">
-        <v>136.8009746584498</v>
-      </c>
-      <c r="P26" t="n">
-        <v>144</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1209.929053041555</v>
-      </c>
-      <c r="R26" t="n">
-        <v>34.78403445607704</v>
-      </c>
-      <c r="S26" t="n">
-        <v>111</v>
-      </c>
-      <c r="T26" t="n">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>20231211-DAY0-PD69- (1)</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>99.73313843443714</v>
-      </c>
-      <c r="C27" t="n">
-        <v>12.78861415689139</v>
-      </c>
-      <c r="D27" t="n">
-        <v>12</v>
-      </c>
-      <c r="E27" t="n">
-        <v>133.6493995243513</v>
-      </c>
-      <c r="F27" t="n">
-        <v>11.56068335023286</v>
-      </c>
-      <c r="G27" t="n">
-        <v>10</v>
-      </c>
-      <c r="H27" t="n">
-        <v>14</v>
-      </c>
-      <c r="I27" t="n">
-        <v>178.2173574196316</v>
-      </c>
-      <c r="J27" t="n">
-        <v>191</v>
-      </c>
-      <c r="K27" t="n">
-        <v>1647.659537216627</v>
-      </c>
-      <c r="L27" t="n">
-        <v>40.59137269441164</v>
-      </c>
-      <c r="M27" t="n">
-        <v>159</v>
-      </c>
-      <c r="N27" t="n">
-        <v>208</v>
-      </c>
-      <c r="O27" t="n">
-        <v>89.01256928968444</v>
-      </c>
-      <c r="P27" t="n">
-        <v>91</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1428.931679378089</v>
-      </c>
-      <c r="R27" t="n">
-        <v>37.80121267073437</v>
-      </c>
-      <c r="S27" t="n">
-        <v>57</v>
-      </c>
-      <c r="T27" t="n">
-        <v>122</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>